--- a/contratos/contratos-11-2016.xlsx
+++ b/contratos/contratos-11-2016.xlsx
@@ -1012,7 +1012,7 @@
     <t>GUILLAUME JOSE LUIS</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1189,7 +1189,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SOTTO NESTOR SANTIAGO</t>
@@ -1753,724 +1753,724 @@
     <t>62</t>
   </si>
   <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>19.830,00</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>320.000,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>717.000,00</t>
-  </si>
-  <si>
-    <t>153.400,00</t>
-  </si>
-  <si>
-    <t>1.056.260,00</t>
-  </si>
-  <si>
-    <t>1.296,00</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>49.998,32</t>
-  </si>
-  <si>
-    <t>527.417,29</t>
-  </si>
-  <si>
-    <t>148.355,08</t>
-  </si>
-  <si>
-    <t>31.271,20</t>
-  </si>
-  <si>
-    <t>122.944,94</t>
-  </si>
-  <si>
-    <t>10.520,00</t>
-  </si>
-  <si>
-    <t>3.453,95</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>68,70</t>
-  </si>
-  <si>
-    <t>23.655,20</t>
-  </si>
-  <si>
-    <t>5.405,00</t>
-  </si>
-  <si>
-    <t>24.069,33</t>
-  </si>
-  <si>
-    <t>13.399,63</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>1.749,02</t>
-  </si>
-  <si>
-    <t>59.900,00</t>
-  </si>
-  <si>
-    <t>16.120,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>90,60</t>
-  </si>
-  <si>
-    <t>65.590,50</t>
-  </si>
-  <si>
-    <t>1.530,00</t>
-  </si>
-  <si>
-    <t>38.902,09</t>
-  </si>
-  <si>
-    <t>187.600,00</t>
-  </si>
-  <si>
-    <t>496.200,20</t>
-  </si>
-  <si>
-    <t>35.352,30</t>
-  </si>
-  <si>
-    <t>27.527,50</t>
-  </si>
-  <si>
-    <t>46.020,00</t>
-  </si>
-  <si>
-    <t>365.503,00</t>
-  </si>
-  <si>
-    <t>2.040,62</t>
-  </si>
-  <si>
-    <t>31.128,50</t>
-  </si>
-  <si>
-    <t>122,60</t>
-  </si>
-  <si>
-    <t>3.110,74</t>
-  </si>
-  <si>
-    <t>1.517,38</t>
-  </si>
-  <si>
-    <t>453,75</t>
-  </si>
-  <si>
-    <t>6.010,05</t>
-  </si>
-  <si>
-    <t>51.696,45</t>
-  </si>
-  <si>
-    <t>1.743,00</t>
-  </si>
-  <si>
-    <t>7.473,80</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>1.108,48</t>
-  </si>
-  <si>
-    <t>1.424,25</t>
-  </si>
-  <si>
-    <t>2.317,00</t>
-  </si>
-  <si>
-    <t>13.857,92</t>
-  </si>
-  <si>
-    <t>762,30</t>
-  </si>
-  <si>
-    <t>2.220,00</t>
-  </si>
-  <si>
-    <t>5.235,81</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>4.222,00</t>
-  </si>
-  <si>
-    <t>9.424,00</t>
-  </si>
-  <si>
-    <t>128,00</t>
-  </si>
-  <si>
-    <t>20.766,03</t>
-  </si>
-  <si>
-    <t>4.126,10</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>64,85</t>
-  </si>
-  <si>
-    <t>1.209,60</t>
-  </si>
-  <si>
-    <t>37.665,54</t>
-  </si>
-  <si>
-    <t>6.405,60</t>
-  </si>
-  <si>
-    <t>2.991,82</t>
-  </si>
-  <si>
-    <t>3.560,00</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>10.120,00</t>
-  </si>
-  <si>
-    <t>8.172,00</t>
-  </si>
-  <si>
-    <t>24.591,00</t>
-  </si>
-  <si>
-    <t>1.413,27</t>
-  </si>
-  <si>
-    <t>757,70</t>
-  </si>
-  <si>
-    <t>14.095,00</t>
-  </si>
-  <si>
-    <t>5.450,00</t>
-  </si>
-  <si>
-    <t>7.505,00</t>
-  </si>
-  <si>
-    <t>1.230,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>10.328,00</t>
-  </si>
-  <si>
-    <t>25.200,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>11.209,00</t>
-  </si>
-  <si>
-    <t>62.260,00</t>
-  </si>
-  <si>
-    <t>712,05</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>35.620,00</t>
-  </si>
-  <si>
-    <t>3.894,80</t>
-  </si>
-  <si>
-    <t>4.810,00</t>
-  </si>
-  <si>
-    <t>6.850,00</t>
-  </si>
-  <si>
-    <t>526.097,59</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>42,58</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>28.638,27</t>
-  </si>
-  <si>
-    <t>124,80</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>134,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>219.000,00</t>
-  </si>
-  <si>
-    <t>2.328,40</t>
-  </si>
-  <si>
-    <t>689,60</t>
-  </si>
-  <si>
-    <t>219,12</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>6.250,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>536,00</t>
-  </si>
-  <si>
-    <t>8.660,00</t>
-  </si>
-  <si>
-    <t>3.410,00</t>
-  </si>
-  <si>
-    <t>29.910,11</t>
-  </si>
-  <si>
-    <t>10.839,95</t>
-  </si>
-  <si>
-    <t>2.959,10</t>
-  </si>
-  <si>
-    <t>1.044,78</t>
-  </si>
-  <si>
-    <t>167,40</t>
-  </si>
-  <si>
-    <t>3.388,00</t>
-  </si>
-  <si>
-    <t>6.472,80</t>
-  </si>
-  <si>
-    <t>155,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>4.980,00</t>
-  </si>
-  <si>
-    <t>5.242,60</t>
-  </si>
-  <si>
-    <t>10.084,12</t>
-  </si>
-  <si>
-    <t>8.160,00</t>
-  </si>
-  <si>
-    <t>34.100,00</t>
-  </si>
-  <si>
-    <t>29.541,00</t>
-  </si>
-  <si>
-    <t>21.577,00</t>
-  </si>
-  <si>
-    <t>3.898,00</t>
-  </si>
-  <si>
-    <t>33.299,89</t>
-  </si>
-  <si>
-    <t>5.881,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>4.464,00</t>
-  </si>
-  <si>
-    <t>20.013,00</t>
-  </si>
-  <si>
-    <t>44.800,00</t>
-  </si>
-  <si>
-    <t>28.500,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>121.250,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>13.789,38</t>
-  </si>
-  <si>
-    <t>2.149,00</t>
-  </si>
-  <si>
-    <t>1.063,20</t>
-  </si>
-  <si>
-    <t>6.790,00</t>
-  </si>
-  <si>
-    <t>2.024,50</t>
-  </si>
-  <si>
-    <t>2.805.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>25.978,18</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>3.204,50</t>
-  </si>
-  <si>
-    <t>2.556,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>17.880,00</t>
-  </si>
-  <si>
-    <t>1.279,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>42.124,50</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>7.955,00</t>
-  </si>
-  <si>
-    <t>1.153,32</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>1.480,00</t>
-  </si>
-  <si>
-    <t>9.715,00</t>
-  </si>
-  <si>
-    <t>6.350,00</t>
-  </si>
-  <si>
-    <t>43.870,00</t>
-  </si>
-  <si>
-    <t>228,48</t>
-  </si>
-  <si>
-    <t>2.365,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>1.827,82</t>
-  </si>
-  <si>
-    <t>7.381,00</t>
-  </si>
-  <si>
-    <t>79,61</t>
-  </si>
-  <si>
-    <t>3.722,00</t>
-  </si>
-  <si>
-    <t>40.880,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>1.868,78</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>21.735,00</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
-  </si>
-  <si>
-    <t>21.450,00</t>
-  </si>
-  <si>
-    <t>1.590,00</t>
-  </si>
-  <si>
-    <t>469,24</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>38.194,34</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>54.170,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>2.550,00</t>
-  </si>
-  <si>
-    <t>8.961,03</t>
-  </si>
-  <si>
-    <t>1.844.105,39</t>
-  </si>
-  <si>
-    <t>3.140,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>51.093,43</t>
-  </si>
-  <si>
-    <t>116.190,00</t>
-  </si>
-  <si>
-    <t>122.190,00</t>
-  </si>
-  <si>
-    <t>121.675,00</t>
-  </si>
-  <si>
-    <t>106.190,00</t>
-  </si>
-  <si>
-    <t>201.846,00</t>
-  </si>
-  <si>
-    <t>200.190,00</t>
-  </si>
-  <si>
-    <t>294.690,00</t>
-  </si>
-  <si>
-    <t>119.340,00</t>
-  </si>
-  <si>
-    <t>375.690,00</t>
-  </si>
-  <si>
-    <t>117.432,00</t>
-  </si>
-  <si>
-    <t>184.190,00</t>
-  </si>
-  <si>
-    <t>6.600.000,00</t>
-  </si>
-  <si>
-    <t>151.956,60</t>
-  </si>
-  <si>
-    <t>226.900,00</t>
-  </si>
-  <si>
-    <t>39.700,00</t>
-  </si>
-  <si>
-    <t>359.539,00</t>
-  </si>
-  <si>
-    <t>60.574,00</t>
-  </si>
-  <si>
-    <t>109.024,00</t>
-  </si>
-  <si>
-    <t>18.400,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>213.550,00</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>36.023,00</t>
-  </si>
-  <si>
-    <t>99.000,00</t>
-  </si>
-  <si>
-    <t>34.500,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>19830.00</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>320000.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>717000.00</t>
+  </si>
+  <si>
+    <t>153400.00</t>
+  </si>
+  <si>
+    <t>1056260.00</t>
+  </si>
+  <si>
+    <t>1296.00</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>49998.32</t>
+  </si>
+  <si>
+    <t>527417.29</t>
+  </si>
+  <si>
+    <t>148355.08</t>
+  </si>
+  <si>
+    <t>31271.20</t>
+  </si>
+  <si>
+    <t>122944.94</t>
+  </si>
+  <si>
+    <t>10520.00</t>
+  </si>
+  <si>
+    <t>3453.95</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>68.70</t>
+  </si>
+  <si>
+    <t>23655.20</t>
+  </si>
+  <si>
+    <t>5405.00</t>
+  </si>
+  <si>
+    <t>24069.33</t>
+  </si>
+  <si>
+    <t>13399.63</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>1749.02</t>
+  </si>
+  <si>
+    <t>59900.00</t>
+  </si>
+  <si>
+    <t>16120.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>90.60</t>
+  </si>
+  <si>
+    <t>65590.50</t>
+  </si>
+  <si>
+    <t>1530.00</t>
+  </si>
+  <si>
+    <t>38902.09</t>
+  </si>
+  <si>
+    <t>187600.00</t>
+  </si>
+  <si>
+    <t>496200.20</t>
+  </si>
+  <si>
+    <t>35352.30</t>
+  </si>
+  <si>
+    <t>27527.50</t>
+  </si>
+  <si>
+    <t>46020.00</t>
+  </si>
+  <si>
+    <t>365503.00</t>
+  </si>
+  <si>
+    <t>2040.62</t>
+  </si>
+  <si>
+    <t>31128.50</t>
+  </si>
+  <si>
+    <t>122.60</t>
+  </si>
+  <si>
+    <t>3110.74</t>
+  </si>
+  <si>
+    <t>1517.38</t>
+  </si>
+  <si>
+    <t>453.75</t>
+  </si>
+  <si>
+    <t>6010.05</t>
+  </si>
+  <si>
+    <t>51696.45</t>
+  </si>
+  <si>
+    <t>1743.00</t>
+  </si>
+  <si>
+    <t>7473.80</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>1108.48</t>
+  </si>
+  <si>
+    <t>1424.25</t>
+  </si>
+  <si>
+    <t>2317.00</t>
+  </si>
+  <si>
+    <t>13857.92</t>
+  </si>
+  <si>
+    <t>762.30</t>
+  </si>
+  <si>
+    <t>2220.00</t>
+  </si>
+  <si>
+    <t>5235.81</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>4222.00</t>
+  </si>
+  <si>
+    <t>9424.00</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>20766.03</t>
+  </si>
+  <si>
+    <t>4126.10</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>64.85</t>
+  </si>
+  <si>
+    <t>1209.60</t>
+  </si>
+  <si>
+    <t>37665.54</t>
+  </si>
+  <si>
+    <t>6405.60</t>
+  </si>
+  <si>
+    <t>2991.82</t>
+  </si>
+  <si>
+    <t>3560.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>10120.00</t>
+  </si>
+  <si>
+    <t>8172.00</t>
+  </si>
+  <si>
+    <t>24591.00</t>
+  </si>
+  <si>
+    <t>1413.27</t>
+  </si>
+  <si>
+    <t>757.70</t>
+  </si>
+  <si>
+    <t>14095.00</t>
+  </si>
+  <si>
+    <t>5450.00</t>
+  </si>
+  <si>
+    <t>7505.00</t>
+  </si>
+  <si>
+    <t>1230.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>10328.00</t>
+  </si>
+  <si>
+    <t>25200.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>11209.00</t>
+  </si>
+  <si>
+    <t>62260.00</t>
+  </si>
+  <si>
+    <t>712.05</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>35620.00</t>
+  </si>
+  <si>
+    <t>3894.80</t>
+  </si>
+  <si>
+    <t>4810.00</t>
+  </si>
+  <si>
+    <t>6850.00</t>
+  </si>
+  <si>
+    <t>526097.59</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>42.58</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>28638.27</t>
+  </si>
+  <si>
+    <t>124.80</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>134.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>219000.00</t>
+  </si>
+  <si>
+    <t>2328.40</t>
+  </si>
+  <si>
+    <t>689.60</t>
+  </si>
+  <si>
+    <t>219.12</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>6250.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>536.00</t>
+  </si>
+  <si>
+    <t>8660.00</t>
+  </si>
+  <si>
+    <t>3410.00</t>
+  </si>
+  <si>
+    <t>29910.11</t>
+  </si>
+  <si>
+    <t>10839.95</t>
+  </si>
+  <si>
+    <t>2959.10</t>
+  </si>
+  <si>
+    <t>1044.78</t>
+  </si>
+  <si>
+    <t>167.40</t>
+  </si>
+  <si>
+    <t>3388.00</t>
+  </si>
+  <si>
+    <t>6472.80</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>4980.00</t>
+  </si>
+  <si>
+    <t>5242.60</t>
+  </si>
+  <si>
+    <t>10084.12</t>
+  </si>
+  <si>
+    <t>8160.00</t>
+  </si>
+  <si>
+    <t>34100.00</t>
+  </si>
+  <si>
+    <t>29541.00</t>
+  </si>
+  <si>
+    <t>21577.00</t>
+  </si>
+  <si>
+    <t>3898.00</t>
+  </si>
+  <si>
+    <t>33299.89</t>
+  </si>
+  <si>
+    <t>5881.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>4464.00</t>
+  </si>
+  <si>
+    <t>20013.00</t>
+  </si>
+  <si>
+    <t>44800.00</t>
+  </si>
+  <si>
+    <t>28500.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>121250.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>13789.38</t>
+  </si>
+  <si>
+    <t>2149.00</t>
+  </si>
+  <si>
+    <t>1063.20</t>
+  </si>
+  <si>
+    <t>6790.00</t>
+  </si>
+  <si>
+    <t>2024.50</t>
+  </si>
+  <si>
+    <t>2805000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>25978.18</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>3204.50</t>
+  </si>
+  <si>
+    <t>2556.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>17880.00</t>
+  </si>
+  <si>
+    <t>1279.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>42124.50</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>7955.00</t>
+  </si>
+  <si>
+    <t>1153.32</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>9715.00</t>
+  </si>
+  <si>
+    <t>6350.00</t>
+  </si>
+  <si>
+    <t>43870.00</t>
+  </si>
+  <si>
+    <t>228.48</t>
+  </si>
+  <si>
+    <t>2365.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>1827.82</t>
+  </si>
+  <si>
+    <t>7381.00</t>
+  </si>
+  <si>
+    <t>79.61</t>
+  </si>
+  <si>
+    <t>3722.00</t>
+  </si>
+  <si>
+    <t>40880.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>1868.78</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>21735.00</t>
+  </si>
+  <si>
+    <t>1110.00</t>
+  </si>
+  <si>
+    <t>21450.00</t>
+  </si>
+  <si>
+    <t>1590.00</t>
+  </si>
+  <si>
+    <t>469.24</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>38194.34</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>54170.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>2550.00</t>
+  </si>
+  <si>
+    <t>8961.03</t>
+  </si>
+  <si>
+    <t>1844105.39</t>
+  </si>
+  <si>
+    <t>3140.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>51093.43</t>
+  </si>
+  <si>
+    <t>116190.00</t>
+  </si>
+  <si>
+    <t>122190.00</t>
+  </si>
+  <si>
+    <t>121675.00</t>
+  </si>
+  <si>
+    <t>106190.00</t>
+  </si>
+  <si>
+    <t>201846.00</t>
+  </si>
+  <si>
+    <t>200190.00</t>
+  </si>
+  <si>
+    <t>294690.00</t>
+  </si>
+  <si>
+    <t>119340.00</t>
+  </si>
+  <si>
+    <t>375690.00</t>
+  </si>
+  <si>
+    <t>117432.00</t>
+  </si>
+  <si>
+    <t>184190.00</t>
+  </si>
+  <si>
+    <t>6600000.00</t>
+  </si>
+  <si>
+    <t>151956.60</t>
+  </si>
+  <si>
+    <t>226900.00</t>
+  </si>
+  <si>
+    <t>39700.00</t>
+  </si>
+  <si>
+    <t>359539.00</t>
+  </si>
+  <si>
+    <t>60574.00</t>
+  </si>
+  <si>
+    <t>109024.00</t>
+  </si>
+  <si>
+    <t>18400.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>213550.00</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>36023.00</t>
+  </si>
+  <si>
+    <t>99000.00</t>
+  </si>
+  <si>
+    <t>34500.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
   </si>
 </sst>
 </file>
